--- a/SA_Capacity_Costs/SA_Capacity_Costs_LPHB.xlsx
+++ b/SA_Capacity_Costs/SA_Capacity_Costs_LPHB.xlsx
@@ -521,22 +521,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.1138</v>
+        <v>6.84605</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2493</v>
+        <v>0.8984500000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>37.04465</v>
+        <v>35.80265000000001</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.70235000000001</v>
+        <v>26.833</v>
       </c>
       <c r="G2" t="n">
-        <v>26.70235000000001</v>
+        <v>26.833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -548,19 +548,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>106.1076</v>
+        <v>65.88079999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>26.70200000000001</v>
+        <v>26.833</v>
       </c>
       <c r="M2" t="n">
-        <v>79.40560000000001</v>
+        <v>39.0478</v>
       </c>
       <c r="N2" t="n">
-        <v>27.1656</v>
+        <v>7.7582</v>
       </c>
       <c r="O2" t="n">
-        <v>52.23999999999999</v>
+        <v>31.2894</v>
       </c>
     </row>
     <row r="3">
@@ -570,46 +570,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.494</v>
+        <v>16.791</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.059</v>
       </c>
       <c r="D3" t="n">
-        <v>42.145</v>
+        <v>53.788</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.468</v>
+        <v>29.672</v>
       </c>
       <c r="G3" t="n">
-        <v>26.468</v>
+        <v>28.619</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.052</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.052</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>181.208</v>
+        <v>29.6066</v>
       </c>
       <c r="L3" t="n">
-        <v>26.468</v>
+        <v>28.619</v>
       </c>
       <c r="M3" t="n">
-        <v>154.74</v>
+        <v>0.9875999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>34.5124</v>
+        <v>0.9875999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>120.2276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.539</v>
+        <v>33.227</v>
       </c>
       <c r="C4" t="n">
-        <v>1.056</v>
+        <v>1.978</v>
       </c>
       <c r="D4" t="n">
-        <v>56.321</v>
+        <v>54.428</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.192</v>
+        <v>37.056</v>
       </c>
       <c r="G4" t="n">
-        <v>35.19235616438356</v>
+        <v>37.05590136986302</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>29.744</v>
+        <v>30.482</v>
       </c>
       <c r="L4" t="n">
-        <v>29.744</v>
+        <v>30.482</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -764,22 +764,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.676400000000001</v>
+        <v>6.17285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204</v>
+        <v>0.8659000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>36.52509999999999</v>
+        <v>35.3661</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.63465</v>
+        <v>26.7402</v>
       </c>
       <c r="G2" t="n">
-        <v>26.63465</v>
+        <v>26.7402</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>225.7482</v>
+        <v>245.3584</v>
       </c>
       <c r="L2" t="n">
-        <v>26.635</v>
+        <v>26.74</v>
       </c>
       <c r="M2" t="n">
-        <v>199.1132</v>
+        <v>218.6184</v>
       </c>
       <c r="N2" t="n">
-        <v>30.0834</v>
+        <v>8.9368</v>
       </c>
       <c r="O2" t="n">
-        <v>169.0296</v>
+        <v>209.6816</v>
       </c>
     </row>
     <row r="3">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.494</v>
+        <v>13.982</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.332</v>
       </c>
       <c r="D3" t="n">
-        <v>42.145</v>
+        <v>53.656</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.468</v>
+        <v>28.797</v>
       </c>
       <c r="G3" t="n">
-        <v>26.468</v>
+        <v>28.31</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.487</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.487</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>379.4714000000001</v>
+        <v>34.1126</v>
       </c>
       <c r="L3" t="n">
-        <v>26.468</v>
+        <v>28.31</v>
       </c>
       <c r="M3" t="n">
-        <v>353.0034</v>
+        <v>5.8026</v>
       </c>
       <c r="N3" t="n">
-        <v>32.476</v>
+        <v>5.8026</v>
       </c>
       <c r="O3" t="n">
-        <v>320.5274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.82</v>
+        <v>19.701</v>
       </c>
       <c r="C4" t="n">
-        <v>1.056</v>
+        <v>2.777</v>
       </c>
       <c r="D4" t="n">
-        <v>57.471</v>
+        <v>53.925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>32.767</v>
+        <v>32.838</v>
       </c>
       <c r="G4" t="n">
-        <v>32.76657260273973</v>
+        <v>32.83793698630137</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35.39239999999999</v>
+        <v>32.3964</v>
       </c>
       <c r="L4" t="n">
-        <v>28.845</v>
+        <v>28.94</v>
       </c>
       <c r="M4" t="n">
-        <v>6.547400000000001</v>
+        <v>3.4564</v>
       </c>
       <c r="N4" t="n">
-        <v>6.547400000000001</v>
+        <v>3.4564</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.025850000000001</v>
+        <v>7.694750000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.27795</v>
+        <v>0.9399500000000002</v>
       </c>
       <c r="D2" t="n">
-        <v>34.8471</v>
+        <v>33.53555</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.76915000000001</v>
+        <v>26.8922</v>
       </c>
       <c r="G2" t="n">
-        <v>26.76915000000001</v>
+        <v>26.8922</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>72.26219999999999</v>
+        <v>88.89219999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>26.769</v>
+        <v>26.892</v>
       </c>
       <c r="M2" t="n">
-        <v>45.49319999999999</v>
+        <v>62.00019999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>18.005</v>
+        <v>5.7136</v>
       </c>
       <c r="O2" t="n">
-        <v>27.4882</v>
+        <v>56.28680000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.494</v>
+        <v>19.701</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.777</v>
       </c>
       <c r="D3" t="n">
-        <v>42.145</v>
+        <v>53.925</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.468</v>
+        <v>29.804</v>
       </c>
       <c r="G3" t="n">
-        <v>26.468</v>
+        <v>28.94</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.864</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.864</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>162.6404</v>
+        <v>28.94</v>
       </c>
       <c r="L3" t="n">
-        <v>26.468</v>
+        <v>28.94</v>
       </c>
       <c r="M3" t="n">
-        <v>136.1724</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26.8692</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>109.3032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.539</v>
+        <v>33.227</v>
       </c>
       <c r="C4" t="n">
-        <v>1.056</v>
+        <v>1.978</v>
       </c>
       <c r="D4" t="n">
-        <v>56.321</v>
+        <v>54.428</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.192</v>
+        <v>37.056</v>
       </c>
       <c r="G4" t="n">
-        <v>35.19235616438356</v>
+        <v>37.05590136986302</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>29.744</v>
+        <v>30.482</v>
       </c>
       <c r="L4" t="n">
-        <v>29.744</v>
+        <v>30.482</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.480600000000003</v>
+        <v>8.265750000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2683</v>
+        <v>0.98795</v>
       </c>
       <c r="D2" t="n">
-        <v>34.85565</v>
+        <v>33.56360000000001</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.8226</v>
+        <v>26.96604999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>26.8226</v>
+        <v>26.96604999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1277,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40.1774</v>
+        <v>36.7704</v>
       </c>
       <c r="L2" t="n">
-        <v>26.823</v>
+        <v>26.966</v>
       </c>
       <c r="M2" t="n">
-        <v>13.3544</v>
+        <v>9.804399999999998</v>
       </c>
       <c r="N2" t="n">
-        <v>9.571199999999999</v>
+        <v>2.7654</v>
       </c>
       <c r="O2" t="n">
-        <v>3.7834</v>
+        <v>7.039</v>
       </c>
     </row>
     <row r="3">
@@ -1299,46 +1299,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.494</v>
+        <v>19.701</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.777</v>
       </c>
       <c r="D3" t="n">
-        <v>42.145</v>
+        <v>53.925</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.468</v>
+        <v>29.804</v>
       </c>
       <c r="G3" t="n">
-        <v>26.468</v>
+        <v>28.94</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.864</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.864</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>109.0974</v>
+        <v>28.94</v>
       </c>
       <c r="L3" t="n">
-        <v>26.468</v>
+        <v>28.94</v>
       </c>
       <c r="M3" t="n">
-        <v>82.62939999999999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8.2324</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>74.39700000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.539</v>
+        <v>33.227</v>
       </c>
       <c r="C4" t="n">
-        <v>1.056</v>
+        <v>1.978</v>
       </c>
       <c r="D4" t="n">
-        <v>56.321</v>
+        <v>54.428</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.192</v>
+        <v>37.056</v>
       </c>
       <c r="G4" t="n">
-        <v>35.19235616438356</v>
+        <v>37.05590136986302</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>29.744</v>
+        <v>30.482</v>
       </c>
       <c r="L4" t="n">
-        <v>29.744</v>
+        <v>30.482</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.34615</v>
+        <v>8.009199999999998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.20765</v>
+        <v>0.7437500000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>35.2997</v>
+        <v>34.4171</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.80925</v>
+        <v>26.92714999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>26.80925</v>
+        <v>26.92714999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1520,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>150.574</v>
+        <v>145.5146</v>
       </c>
       <c r="L2" t="n">
-        <v>26.809</v>
+        <v>26.927</v>
       </c>
       <c r="M2" t="n">
-        <v>123.765</v>
+        <v>118.5876</v>
       </c>
       <c r="N2" t="n">
-        <v>11.1456</v>
+        <v>3.173</v>
       </c>
       <c r="O2" t="n">
-        <v>112.6196</v>
+        <v>115.4146</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.732</v>
+        <v>19.735</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.779</v>
       </c>
       <c r="D3" t="n">
-        <v>28.357</v>
+        <v>54.322</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.213</v>
+        <v>29.71</v>
       </c>
       <c r="G3" t="n">
-        <v>26.213</v>
+        <v>28.847</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.863</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.863</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>276.129</v>
+        <v>52.6946</v>
       </c>
       <c r="L3" t="n">
-        <v>26.213</v>
+        <v>28.847</v>
       </c>
       <c r="M3" t="n">
-        <v>249.916</v>
+        <v>23.8476</v>
       </c>
       <c r="N3" t="n">
-        <v>27.9278</v>
+        <v>0.1968</v>
       </c>
       <c r="O3" t="n">
-        <v>221.9882</v>
+        <v>23.6508</v>
       </c>
     </row>
     <row r="4">
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.591</v>
+        <v>33.278</v>
       </c>
       <c r="C4" t="n">
-        <v>0.784</v>
+        <v>1.705</v>
       </c>
       <c r="D4" t="n">
-        <v>56.364</v>
+        <v>54.473</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.181</v>
+        <v>37.044</v>
       </c>
       <c r="G4" t="n">
-        <v>35.18097260273973</v>
+        <v>37.04413424657535</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.4812</v>
+        <v>38.4892</v>
       </c>
       <c r="L4" t="n">
-        <v>29.722</v>
+        <v>30.46</v>
       </c>
       <c r="M4" t="n">
-        <v>26.7592</v>
+        <v>8.029199999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1476</v>
+        <v>0.0442</v>
       </c>
       <c r="O4" t="n">
-        <v>26.6118</v>
+        <v>7.985200000000001</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Capacity_Costs/SA_Capacity_Costs_LPHB.xlsx
+++ b/SA_Capacity_Costs/SA_Capacity_Costs_LPHB.xlsx
@@ -521,22 +521,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.84605</v>
+        <v>6.87565</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8984500000000001</v>
+        <v>1.2232</v>
       </c>
       <c r="D2" t="n">
-        <v>35.80265000000001</v>
+        <v>35.04514999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0359</v>
       </c>
       <c r="F2" t="n">
-        <v>26.833</v>
+        <v>25.56695</v>
       </c>
       <c r="G2" t="n">
-        <v>26.833</v>
+        <v>25.56695</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -548,19 +548,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>65.88079999999999</v>
+        <v>65.9374</v>
       </c>
       <c r="L2" t="n">
-        <v>26.833</v>
+        <v>25.567</v>
       </c>
       <c r="M2" t="n">
-        <v>39.0478</v>
+        <v>40.3704</v>
       </c>
       <c r="N2" t="n">
-        <v>7.7582</v>
+        <v>7.785999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>31.2894</v>
+        <v>32.5844</v>
       </c>
     </row>
     <row r="3">
@@ -570,22 +570,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.791</v>
+        <v>16.949</v>
       </c>
       <c r="C3" t="n">
-        <v>3.059</v>
+        <v>3.07</v>
       </c>
       <c r="D3" t="n">
-        <v>53.788</v>
+        <v>53.744</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.672</v>
+        <v>28.401</v>
       </c>
       <c r="G3" t="n">
-        <v>28.619</v>
+        <v>27.349</v>
       </c>
       <c r="H3" t="n">
         <v>1.052</v>
@@ -597,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>29.6066</v>
+        <v>28.334</v>
       </c>
       <c r="L3" t="n">
-        <v>28.619</v>
+        <v>27.349</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9875999999999999</v>
+        <v>0.985</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9875999999999999</v>
+        <v>0.985</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.227</v>
+        <v>33.529</v>
       </c>
       <c r="C4" t="n">
-        <v>1.978</v>
+        <v>2.449</v>
       </c>
       <c r="D4" t="n">
-        <v>54.428</v>
+        <v>53.46</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.056</v>
+        <v>35.893</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05590136986302</v>
+        <v>35.8925808219178</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>30.482</v>
+        <v>29.259</v>
       </c>
       <c r="L4" t="n">
-        <v>30.482</v>
+        <v>29.259</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -764,22 +764,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.17285</v>
+        <v>6.19875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8659000000000001</v>
+        <v>1.20455</v>
       </c>
       <c r="D2" t="n">
-        <v>35.3661</v>
+        <v>34.63824999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0359</v>
       </c>
       <c r="F2" t="n">
-        <v>26.7402</v>
+        <v>25.47575</v>
       </c>
       <c r="G2" t="n">
-        <v>26.7402</v>
+        <v>25.47575</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>245.3584</v>
+        <v>228.6622</v>
       </c>
       <c r="L2" t="n">
-        <v>26.74</v>
+        <v>25.476</v>
       </c>
       <c r="M2" t="n">
-        <v>218.6184</v>
+        <v>203.1862</v>
       </c>
       <c r="N2" t="n">
-        <v>8.9368</v>
+        <v>8.9472</v>
       </c>
       <c r="O2" t="n">
-        <v>209.6816</v>
+        <v>194.2392</v>
       </c>
     </row>
     <row r="3">
@@ -813,43 +813,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.982</v>
+        <v>14.045</v>
       </c>
       <c r="C3" t="n">
-        <v>3.332</v>
+        <v>3.349</v>
       </c>
       <c r="D3" t="n">
-        <v>53.656</v>
+        <v>53.613</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>28.797</v>
+        <v>27.519</v>
       </c>
       <c r="G3" t="n">
-        <v>28.31</v>
+        <v>27.029</v>
       </c>
       <c r="H3" t="n">
-        <v>0.487</v>
+        <v>0.489</v>
       </c>
       <c r="I3" t="n">
-        <v>0.487</v>
+        <v>0.489</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>34.1126</v>
+        <v>32.8484</v>
       </c>
       <c r="L3" t="n">
-        <v>28.31</v>
+        <v>27.029</v>
       </c>
       <c r="M3" t="n">
-        <v>5.8026</v>
+        <v>5.8194</v>
       </c>
       <c r="N3" t="n">
-        <v>5.8026</v>
+        <v>5.8194</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.701</v>
+        <v>19.899</v>
       </c>
       <c r="C4" t="n">
-        <v>2.777</v>
+        <v>2.786</v>
       </c>
       <c r="D4" t="n">
-        <v>53.925</v>
+        <v>53.876</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>32.838</v>
+        <v>31.612</v>
       </c>
       <c r="G4" t="n">
-        <v>32.83793698630137</v>
+        <v>31.61164383561644</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>32.3964</v>
+        <v>31.134</v>
       </c>
       <c r="L4" t="n">
-        <v>28.94</v>
+        <v>27.675</v>
       </c>
       <c r="M4" t="n">
-        <v>3.4564</v>
+        <v>3.459000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4564</v>
+        <v>3.459000000000001</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.694750000000002</v>
+        <v>7.723350000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9399500000000002</v>
+        <v>1.3063</v>
       </c>
       <c r="D2" t="n">
-        <v>33.53555</v>
+        <v>32.7205</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.8922</v>
+        <v>25.62845</v>
       </c>
       <c r="G2" t="n">
-        <v>26.8922</v>
+        <v>25.62845</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>88.89219999999999</v>
+        <v>75.7448</v>
       </c>
       <c r="L2" t="n">
-        <v>26.892</v>
+        <v>25.628</v>
       </c>
       <c r="M2" t="n">
-        <v>62.00019999999999</v>
+        <v>50.1168</v>
       </c>
       <c r="N2" t="n">
-        <v>5.7136</v>
+        <v>5.8988</v>
       </c>
       <c r="O2" t="n">
-        <v>56.28680000000001</v>
+        <v>44.218</v>
       </c>
     </row>
     <row r="3">
@@ -1056,37 +1056,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.701</v>
+        <v>19.899</v>
       </c>
       <c r="C3" t="n">
-        <v>2.777</v>
+        <v>2.786</v>
       </c>
       <c r="D3" t="n">
-        <v>53.925</v>
+        <v>53.876</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.804</v>
+        <v>28.539</v>
       </c>
       <c r="G3" t="n">
-        <v>28.94</v>
+        <v>27.675</v>
       </c>
       <c r="H3" t="n">
-        <v>0.864</v>
+        <v>0.865</v>
       </c>
       <c r="I3" t="n">
-        <v>0.864</v>
+        <v>0.865</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.94</v>
+        <v>27.675</v>
       </c>
       <c r="L3" t="n">
-        <v>28.94</v>
+        <v>27.675</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.227</v>
+        <v>33.529</v>
       </c>
       <c r="C4" t="n">
-        <v>1.978</v>
+        <v>2.449</v>
       </c>
       <c r="D4" t="n">
-        <v>54.428</v>
+        <v>53.46</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.056</v>
+        <v>35.893</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05590136986302</v>
+        <v>35.8925808219178</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>30.482</v>
+        <v>29.259</v>
       </c>
       <c r="L4" t="n">
-        <v>30.482</v>
+        <v>29.259</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.265750000000001</v>
+        <v>8.298950000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.98795</v>
+        <v>1.2959</v>
       </c>
       <c r="D2" t="n">
-        <v>33.56360000000001</v>
+        <v>32.83895</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0359</v>
       </c>
       <c r="F2" t="n">
-        <v>26.96604999999999</v>
+        <v>25.6993</v>
       </c>
       <c r="G2" t="n">
-        <v>26.96604999999999</v>
+        <v>25.6993</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1277,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>36.7704</v>
+        <v>45.387</v>
       </c>
       <c r="L2" t="n">
-        <v>26.966</v>
+        <v>25.699</v>
       </c>
       <c r="M2" t="n">
-        <v>9.804399999999998</v>
+        <v>19.688</v>
       </c>
       <c r="N2" t="n">
-        <v>2.7654</v>
+        <v>2.7378</v>
       </c>
       <c r="O2" t="n">
-        <v>7.039</v>
+        <v>16.9502</v>
       </c>
     </row>
     <row r="3">
@@ -1299,37 +1299,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.701</v>
+        <v>19.899</v>
       </c>
       <c r="C3" t="n">
-        <v>2.777</v>
+        <v>2.786</v>
       </c>
       <c r="D3" t="n">
-        <v>53.925</v>
+        <v>53.876</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.804</v>
+        <v>28.539</v>
       </c>
       <c r="G3" t="n">
-        <v>28.94</v>
+        <v>27.675</v>
       </c>
       <c r="H3" t="n">
-        <v>0.864</v>
+        <v>0.865</v>
       </c>
       <c r="I3" t="n">
-        <v>0.864</v>
+        <v>0.865</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.94</v>
+        <v>27.675</v>
       </c>
       <c r="L3" t="n">
-        <v>28.94</v>
+        <v>27.675</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.227</v>
+        <v>33.529</v>
       </c>
       <c r="C4" t="n">
-        <v>1.978</v>
+        <v>2.449</v>
       </c>
       <c r="D4" t="n">
-        <v>54.428</v>
+        <v>53.46</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.056</v>
+        <v>35.893</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05590136986302</v>
+        <v>35.8925808219178</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>30.482</v>
+        <v>29.259</v>
       </c>
       <c r="L4" t="n">
-        <v>30.482</v>
+        <v>29.259</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.009199999999998</v>
+        <v>8.0367</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7437500000000001</v>
+        <v>1.05765</v>
       </c>
       <c r="D2" t="n">
-        <v>34.4171</v>
+        <v>33.68215</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0359</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92714999999999</v>
+        <v>25.66015000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>26.92714999999999</v>
+        <v>25.66015000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1520,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5146</v>
+        <v>144.3206</v>
       </c>
       <c r="L2" t="n">
-        <v>26.927</v>
+        <v>25.66</v>
       </c>
       <c r="M2" t="n">
-        <v>118.5876</v>
+        <v>118.6606</v>
       </c>
       <c r="N2" t="n">
-        <v>3.173</v>
+        <v>3.2118</v>
       </c>
       <c r="O2" t="n">
-        <v>115.4146</v>
+        <v>115.4488</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.735</v>
+        <v>19.917</v>
       </c>
       <c r="C3" t="n">
-        <v>1.779</v>
+        <v>2.49</v>
       </c>
       <c r="D3" t="n">
-        <v>54.322</v>
+        <v>52.862</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.71</v>
+        <v>28.489</v>
       </c>
       <c r="G3" t="n">
-        <v>28.847</v>
+        <v>27.625</v>
       </c>
       <c r="H3" t="n">
-        <v>0.863</v>
+        <v>0.865</v>
       </c>
       <c r="I3" t="n">
-        <v>0.863</v>
+        <v>0.865</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.6946</v>
+        <v>30.8814</v>
       </c>
       <c r="L3" t="n">
-        <v>28.847</v>
+        <v>27.625</v>
       </c>
       <c r="M3" t="n">
-        <v>23.8476</v>
+        <v>3.2564</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1968</v>
+        <v>0.1934</v>
       </c>
       <c r="O3" t="n">
-        <v>23.6508</v>
+        <v>3.0628</v>
       </c>
     </row>
     <row r="4">
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.278</v>
+        <v>33.529</v>
       </c>
       <c r="C4" t="n">
-        <v>1.705</v>
+        <v>2.449</v>
       </c>
       <c r="D4" t="n">
-        <v>54.473</v>
+        <v>52.947</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.044</v>
+        <v>35.882</v>
       </c>
       <c r="G4" t="n">
-        <v>37.04413424657535</v>
+        <v>35.88203287671233</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>38.4892</v>
+        <v>29.292</v>
       </c>
       <c r="L4" t="n">
-        <v>30.46</v>
+        <v>29.248</v>
       </c>
       <c r="M4" t="n">
-        <v>8.029199999999999</v>
+        <v>0.044</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0442</v>
+        <v>0.044</v>
       </c>
       <c r="O4" t="n">
-        <v>7.985200000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Capacity_Costs/SA_Capacity_Costs_LPHB.xlsx
+++ b/SA_Capacity_Costs/SA_Capacity_Costs_LPHB.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Fold_1" sheetId="1" state="visible" r:id="rId1"/>
@@ -57,18 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -521,46 +521,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.87565</v>
+        <v>7.8155</v>
       </c>
       <c r="C2" t="n">
-        <v>1.2232</v>
+        <v>5.075499999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>35.04514999999999</v>
+        <v>36.1801</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0359</v>
+        <v>0.11735</v>
       </c>
       <c r="F2" t="n">
-        <v>25.56695</v>
+        <v>1807.7313</v>
       </c>
       <c r="G2" t="n">
-        <v>25.56695</v>
+        <v>1681.34325</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>126.388</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>126.388</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>65.9374</v>
+        <v>2116.6236</v>
       </c>
       <c r="L2" t="n">
-        <v>25.567</v>
+        <v>1681.344</v>
       </c>
       <c r="M2" t="n">
-        <v>40.3704</v>
+        <v>435.2796</v>
       </c>
       <c r="N2" t="n">
-        <v>7.785999999999999</v>
+        <v>245.6538</v>
       </c>
       <c r="O2" t="n">
-        <v>32.5844</v>
+        <v>189.626</v>
       </c>
     </row>
     <row r="3">
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.949</v>
+        <v>8.599</v>
       </c>
       <c r="C3" t="n">
-        <v>3.07</v>
+        <v>7.042</v>
       </c>
       <c r="D3" t="n">
-        <v>53.744</v>
+        <v>30.463</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>28.401</v>
+        <v>1886.457</v>
       </c>
       <c r="G3" t="n">
-        <v>27.349</v>
+        <v>1747.636</v>
       </c>
       <c r="H3" t="n">
-        <v>1.052</v>
+        <v>138.82</v>
       </c>
       <c r="I3" t="n">
-        <v>1.052</v>
+        <v>124.274</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>14.546</v>
       </c>
       <c r="K3" t="n">
-        <v>28.334</v>
+        <v>1954.0164</v>
       </c>
       <c r="L3" t="n">
-        <v>27.349</v>
+        <v>1747.645</v>
       </c>
       <c r="M3" t="n">
-        <v>0.985</v>
+        <v>206.3714</v>
       </c>
       <c r="N3" t="n">
-        <v>0.985</v>
+        <v>206.3714</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,50 +619,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.529</v>
+        <v>8.815</v>
       </c>
       <c r="C4" t="n">
-        <v>2.449</v>
+        <v>7.576</v>
       </c>
       <c r="D4" t="n">
-        <v>53.46</v>
+        <v>34.623</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.893</v>
+        <v>2654.829</v>
       </c>
       <c r="G4" t="n">
-        <v>35.8925808219178</v>
+        <v>2445.484</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>209.345</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>209.345</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>29.259</v>
+        <v>1968.2836</v>
       </c>
       <c r="L4" t="n">
-        <v>29.259</v>
+        <v>1808.902</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>159.3816</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>159.3816</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -764,46 +764,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.19875</v>
+        <v>8.1266</v>
       </c>
       <c r="C2" t="n">
-        <v>1.20455</v>
+        <v>5.254</v>
       </c>
       <c r="D2" t="n">
-        <v>34.63824999999999</v>
+        <v>35.38154999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0359</v>
+        <v>0.11735</v>
       </c>
       <c r="F2" t="n">
-        <v>25.47575</v>
+        <v>1828.0463</v>
       </c>
       <c r="G2" t="n">
-        <v>25.47575</v>
+        <v>1695.8099</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>132.23635</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>132.23635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>228.6622</v>
+        <v>1854.3794</v>
       </c>
       <c r="L2" t="n">
-        <v>25.476</v>
+        <v>1695.809</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1862</v>
+        <v>158.5704</v>
       </c>
       <c r="N2" t="n">
-        <v>8.9472</v>
+        <v>158.5704</v>
       </c>
       <c r="O2" t="n">
-        <v>194.2392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -813,43 +813,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.045</v>
+        <v>8.728999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>3.349</v>
+        <v>6.939</v>
       </c>
       <c r="D3" t="n">
-        <v>53.613</v>
+        <v>30.529</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.519</v>
+        <v>1903.5</v>
       </c>
       <c r="G3" t="n">
-        <v>27.029</v>
+        <v>1749.856</v>
       </c>
       <c r="H3" t="n">
-        <v>0.489</v>
+        <v>153.643</v>
       </c>
       <c r="I3" t="n">
-        <v>0.489</v>
+        <v>138.58</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.063</v>
       </c>
       <c r="K3" t="n">
-        <v>32.8484</v>
+        <v>1884.5516</v>
       </c>
       <c r="L3" t="n">
-        <v>27.029</v>
+        <v>1749.833</v>
       </c>
       <c r="M3" t="n">
-        <v>5.8194</v>
+        <v>134.7186</v>
       </c>
       <c r="N3" t="n">
-        <v>5.8194</v>
+        <v>134.7186</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -862,50 +862,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.899</v>
+        <v>10.535</v>
       </c>
       <c r="C4" t="n">
-        <v>2.786</v>
+        <v>6.916</v>
       </c>
       <c r="D4" t="n">
-        <v>53.876</v>
+        <v>38.143</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>31.612</v>
+        <v>2822.403</v>
       </c>
       <c r="G4" t="n">
-        <v>31.61164383561644</v>
+        <v>2645.637</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>176.766</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>45.905</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>130.861</v>
       </c>
       <c r="K4" t="n">
-        <v>31.134</v>
+        <v>1934.1808</v>
       </c>
       <c r="L4" t="n">
-        <v>27.675</v>
+        <v>1884.845</v>
       </c>
       <c r="M4" t="n">
-        <v>3.459000000000001</v>
+        <v>49.33579999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>3.459000000000001</v>
+        <v>49.33579999999999</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1007,46 +1007,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.723350000000001</v>
+        <v>7.9502</v>
       </c>
       <c r="C2" t="n">
-        <v>1.3063</v>
+        <v>5.12635</v>
       </c>
       <c r="D2" t="n">
-        <v>32.7205</v>
+        <v>35.48694999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.11735</v>
       </c>
       <c r="F2" t="n">
-        <v>25.62845</v>
+        <v>1807.80945</v>
       </c>
       <c r="G2" t="n">
-        <v>25.62845</v>
+        <v>1683.9834</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>123.82605</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>123.82605</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>75.7448</v>
+        <v>2138.6336</v>
       </c>
       <c r="L2" t="n">
-        <v>25.628</v>
+        <v>1683.979</v>
       </c>
       <c r="M2" t="n">
-        <v>50.1168</v>
+        <v>454.6546</v>
       </c>
       <c r="N2" t="n">
-        <v>5.8988</v>
+        <v>248.799</v>
       </c>
       <c r="O2" t="n">
-        <v>44.218</v>
+        <v>205.8556</v>
       </c>
     </row>
     <row r="3">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.899</v>
+        <v>8.593999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>2.786</v>
+        <v>6.276</v>
       </c>
       <c r="D3" t="n">
-        <v>53.876</v>
+        <v>31.48</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>28.539</v>
+        <v>1879.65</v>
       </c>
       <c r="G3" t="n">
-        <v>27.675</v>
+        <v>1725.483</v>
       </c>
       <c r="H3" t="n">
-        <v>0.865</v>
+        <v>154.167</v>
       </c>
       <c r="I3" t="n">
-        <v>0.865</v>
+        <v>130.65</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>23.518</v>
       </c>
       <c r="K3" t="n">
-        <v>27.675</v>
+        <v>1987.0926</v>
       </c>
       <c r="L3" t="n">
-        <v>27.675</v>
+        <v>1725.486</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>261.6066</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>225.967</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>35.6396</v>
       </c>
     </row>
     <row r="4">
@@ -1105,50 +1105,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.529</v>
+        <v>10.535</v>
       </c>
       <c r="C4" t="n">
-        <v>2.449</v>
+        <v>6.916</v>
       </c>
       <c r="D4" t="n">
-        <v>53.46</v>
+        <v>38.143</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.893</v>
+        <v>2822.403</v>
       </c>
       <c r="G4" t="n">
-        <v>35.8925808219178</v>
+        <v>2645.637</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>176.766</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>45.905</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>130.861</v>
       </c>
       <c r="K4" t="n">
-        <v>29.259</v>
+        <v>1979.7326</v>
       </c>
       <c r="L4" t="n">
-        <v>29.259</v>
+        <v>1884.845</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>94.88759999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>94.88759999999999</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1250,46 +1250,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.298950000000001</v>
+        <v>8.51155</v>
       </c>
       <c r="C2" t="n">
-        <v>1.2959</v>
+        <v>4.971</v>
       </c>
       <c r="D2" t="n">
-        <v>32.83895</v>
+        <v>37.37009999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0359</v>
+        <v>0.01775</v>
       </c>
       <c r="F2" t="n">
-        <v>25.6993</v>
+        <v>1854.60435</v>
       </c>
       <c r="G2" t="n">
-        <v>25.6993</v>
+        <v>1715.84995</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>138.75445</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>138.75445</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>45.387</v>
+        <v>1852.1838</v>
       </c>
       <c r="L2" t="n">
-        <v>25.699</v>
+        <v>1715.847</v>
       </c>
       <c r="M2" t="n">
-        <v>19.688</v>
+        <v>136.3368</v>
       </c>
       <c r="N2" t="n">
-        <v>2.7378</v>
+        <v>55.0792</v>
       </c>
       <c r="O2" t="n">
-        <v>16.9502</v>
+        <v>81.2576</v>
       </c>
     </row>
     <row r="3">
@@ -1299,43 +1299,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.899</v>
+        <v>8.986000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>2.786</v>
+        <v>6.737</v>
       </c>
       <c r="D3" t="n">
-        <v>53.876</v>
+        <v>31.635</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>28.539</v>
+        <v>1923.076</v>
       </c>
       <c r="G3" t="n">
-        <v>27.675</v>
+        <v>1761.558</v>
       </c>
       <c r="H3" t="n">
-        <v>0.865</v>
+        <v>161.517</v>
       </c>
       <c r="I3" t="n">
-        <v>0.865</v>
+        <v>145.43</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>16.087</v>
       </c>
       <c r="K3" t="n">
-        <v>27.675</v>
+        <v>1807.4716</v>
       </c>
       <c r="L3" t="n">
-        <v>27.675</v>
+        <v>1761.542</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>45.9296</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>45.9296</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,50 +1348,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.529</v>
+        <v>10.535</v>
       </c>
       <c r="C4" t="n">
-        <v>2.449</v>
+        <v>6.916</v>
       </c>
       <c r="D4" t="n">
-        <v>53.46</v>
+        <v>38.143</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.893</v>
+        <v>2822.403</v>
       </c>
       <c r="G4" t="n">
-        <v>35.8925808219178</v>
+        <v>2645.637</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>176.766</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>45.905</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>130.861</v>
       </c>
       <c r="K4" t="n">
-        <v>29.259</v>
+        <v>1896.6538</v>
       </c>
       <c r="L4" t="n">
-        <v>29.259</v>
+        <v>1884.845</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>11.8088</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>11.8088</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1493,46 +1493,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.0367</v>
+        <v>8.18235</v>
       </c>
       <c r="C2" t="n">
-        <v>1.05765</v>
+        <v>4.972949999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>33.68215</v>
+        <v>38.2481</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0359</v>
+        <v>0.09959999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>25.66015000000001</v>
+        <v>1840.8258</v>
       </c>
       <c r="G2" t="n">
-        <v>25.66015000000001</v>
+        <v>1708.7709</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>132.05475</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>132.05475</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>144.3206</v>
+        <v>1966.0488</v>
       </c>
       <c r="L2" t="n">
-        <v>25.66</v>
+        <v>1708.77</v>
       </c>
       <c r="M2" t="n">
-        <v>118.6606</v>
+        <v>257.2787999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2118</v>
+        <v>93.08540000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>115.4488</v>
+        <v>164.1934</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.917</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>2.49</v>
+        <v>6.183</v>
       </c>
       <c r="D3" t="n">
-        <v>52.862</v>
+        <v>33.475</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>28.489</v>
+        <v>1894.691</v>
       </c>
       <c r="G3" t="n">
-        <v>27.625</v>
+        <v>1749.745</v>
       </c>
       <c r="H3" t="n">
-        <v>0.865</v>
+        <v>144.947</v>
       </c>
       <c r="I3" t="n">
-        <v>0.865</v>
+        <v>137.649</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.298</v>
       </c>
       <c r="K3" t="n">
-        <v>30.8814</v>
+        <v>1923.1354</v>
       </c>
       <c r="L3" t="n">
-        <v>27.625</v>
+        <v>1749.733</v>
       </c>
       <c r="M3" t="n">
-        <v>3.2564</v>
+        <v>173.4024</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1934</v>
+        <v>81.16119999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>3.0628</v>
+        <v>92.24120000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1591,49 +1591,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.529</v>
+        <v>10.546</v>
       </c>
       <c r="C4" t="n">
-        <v>2.449</v>
+        <v>5.513</v>
       </c>
       <c r="D4" t="n">
-        <v>52.947</v>
+        <v>41.955</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.882</v>
+        <v>2798.182</v>
       </c>
       <c r="G4" t="n">
-        <v>35.88203287671233</v>
+        <v>2621.354</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>176.828</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>76.154</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>100.674</v>
       </c>
       <c r="K4" t="n">
-        <v>29.292</v>
+        <v>1987.1916</v>
       </c>
       <c r="L4" t="n">
-        <v>29.248</v>
+        <v>1859.767</v>
       </c>
       <c r="M4" t="n">
-        <v>0.044</v>
+        <v>127.4246</v>
       </c>
       <c r="N4" t="n">
-        <v>0.044</v>
+        <v>35.8156</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>91.6092</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>